--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2361300.524587524</v>
+        <v>-2363995.321863373</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>337.3655157904976</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>220.141805797031</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>212.783074662939</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13.74677700470045</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>100.1410754051806</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>36.09143880632982</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>290.3479556935762</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>87.99748334856844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>106.3805208209821</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>262.5997248844087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>255.438417953038</v>
+        <v>370.0648965483583</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.7671037116294</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>94.4866250363276</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>61.44013021076765</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.39698738222857</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9706438327688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652696</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308927</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1604.498942504796</v>
+        <v>1201.628001464564</v>
       </c>
       <c r="C2" t="n">
-        <v>1604.498942504796</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1961.693599789765</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1961.693599789765</v>
       </c>
       <c r="X2" t="n">
-        <v>1994.638274480608</v>
+        <v>1588.227841528685</v>
       </c>
       <c r="Y2" t="n">
-        <v>1604.498942504796</v>
+        <v>1588.227841528685</v>
       </c>
     </row>
     <row r="3">
@@ -4404,40 +4404,40 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>590.2049751143502</v>
       </c>
       <c r="L3" t="n">
-        <v>846.3061319081668</v>
+        <v>884.9085321458221</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
         <v>2004.520742047138</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>602.021613731249</v>
+        <v>360.7612655404885</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1535.293518655123</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1535.293518655123</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1535.293518655123</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>1535.293518655123</v>
       </c>
       <c r="V4" t="n">
-        <v>1011.659629459506</v>
+        <v>1280.609030449236</v>
       </c>
       <c r="W4" t="n">
-        <v>1011.659629459506</v>
+        <v>991.1918604122757</v>
       </c>
       <c r="X4" t="n">
-        <v>783.6700785614887</v>
+        <v>763.2023095142583</v>
       </c>
       <c r="Y4" t="n">
-        <v>783.6700785614887</v>
+        <v>542.4097303707282</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1202.59552936621</v>
+        <v>1511.231752124757</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.59552936621</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182945</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.481876182945</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="Y5" t="n">
-        <v>1202.59552936621</v>
+        <v>1897.831592188879</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.8756322024072</v>
+        <v>624.8936537153462</v>
       </c>
       <c r="C7" t="n">
-        <v>346.8756322024072</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="D7" t="n">
-        <v>346.8756322024072</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
         <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>1021.765895288653</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="W7" t="n">
-        <v>756.5136479306643</v>
+        <v>732.3487252516918</v>
       </c>
       <c r="X7" t="n">
-        <v>528.524097032647</v>
+        <v>732.3487252516918</v>
       </c>
       <c r="Y7" t="n">
-        <v>528.524097032647</v>
+        <v>732.3487252516918</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367745</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760995</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348091</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1915.408584743413</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1915.408584743413</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1693.641969312938</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1693.641969312938</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1693.641969312938</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>1404.224799275978</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="X10" t="n">
-        <v>1176.23524837796</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.4426692344304</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,13 +5115,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5130,16 +5130,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424045</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5626541092265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2389.155899672379</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>853.9360528261844</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138487</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.313279727861</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.520700584331</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,13 +5598,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5650,25 +5650,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5744,25 +5744,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898186995</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345487</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384031</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311326</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N25" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6382,28 +6382,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6555,10 +6555,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,7 +6634,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
         <v>2496.057455973196</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150024</v>
@@ -6844,25 +6844,25 @@
         <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,19 +6871,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7123,10 +7123,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7324,19 +7324,19 @@
         <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656816</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,13 +7585,13 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
-        <v>129.7511347056857</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>98.2444844197683</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>107.6104526731039</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>156.94802601553</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,22 +22705,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>153.5000440939274</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>216.0462045174982</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.17534280744471</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>79.42624789262584</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>75.0369752643406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.73901155626831</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.644255312869648e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31766.15265272276</v>
+        <v>31766.15265272277</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450033</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.32998450032</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="H2" t="n">
         <v>40357.3299845003</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321418</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41052.08849321418</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30724.14482028153</v>
+        <v>30724.14482028148</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756652</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756577</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>17328.05961985006</v>
@@ -26445,19 +26445,19 @@
         <v>17328.05961985006</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985012</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985009</v>
       </c>
       <c r="N4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985009</v>
+        <v>17328.05961985005</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985005</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1206647.548183323</v>
+        <v>-1207111.844975348</v>
       </c>
       <c r="C6" t="n">
-        <v>-188611.957638733</v>
+        <v>-188611.9576387331</v>
       </c>
       <c r="D6" t="n">
-        <v>-348033.2276366248</v>
+        <v>-348033.2276366251</v>
       </c>
       <c r="E6" t="n">
-        <v>-395514.8620035187</v>
+        <v>-395549.5999289542</v>
       </c>
       <c r="F6" t="n">
-        <v>-70102.40019616338</v>
+        <v>-70137.13812159914</v>
       </c>
       <c r="G6" t="n">
-        <v>-70102.40019616339</v>
+        <v>-70137.13812159906</v>
       </c>
       <c r="H6" t="n">
-        <v>-70102.40019616341</v>
+        <v>-70137.1381215991</v>
       </c>
       <c r="I6" t="n">
-        <v>-98867.80497418303</v>
+        <v>-98867.80497418306</v>
       </c>
       <c r="J6" t="n">
-        <v>-247045.2647905338</v>
+        <v>-247045.2647905339</v>
       </c>
       <c r="K6" t="n">
         <v>-79440.08698055128</v>
       </c>
       <c r="L6" t="n">
-        <v>-127734.056988742</v>
+        <v>-127734.0569887421</v>
       </c>
       <c r="M6" t="n">
         <v>-164495.1149160631</v>
       </c>
       <c r="N6" t="n">
-        <v>-98867.80497418305</v>
+        <v>-98867.80497418303</v>
       </c>
       <c r="O6" t="n">
-        <v>-79440.08698055131</v>
+        <v>-79440.08698055126</v>
       </c>
       <c r="P6" t="n">
         <v>-79440.08698055126</v>
@@ -26707,25 +26707,25 @@
         <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>17.31752583018539</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.416497014392974</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>74.92493607743137</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>298.2404553074851</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>73.45145936095516</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>23.92327345218229</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4919521192238</v>
+        <v>11.86547352390352</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.16504895841794</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>192.0363733002634</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093084</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>268.5330199802463</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,16 +32318,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393211</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386692</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215496</v>
       </c>
       <c r="L3" t="n">
-        <v>427.431495343536</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>489.4415840126422</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949373</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594469</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419561</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942248</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
